--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\api4excel-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFB4557-7D06-4D1A-84CF-2318AF98DF55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BC30B0-9939-4211-9559-460B6DABA516}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="getVechleStatus" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
